--- a/assets/Book1.xlsx
+++ b/assets/Book1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\smart_attend\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\smart_attend\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B32CB67B-73BF-414B-9A75-0C27ED1DF789}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72EAA149-8CFF-47AE-947D-58D3F86E35A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{038EB4F6-426B-413A-B0AB-29F2DACCA4B6}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="8">
   <si>
     <t>LecNo.</t>
   </si>
@@ -54,6 +54,15 @@
   </si>
   <si>
     <t>PHP</t>
+  </si>
+  <si>
+    <t>Course</t>
+  </si>
+  <si>
+    <t>MCA</t>
+  </si>
+  <si>
+    <t>Semester</t>
   </si>
 </sst>
 </file>
@@ -427,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDF15F82-26E0-4090-8F97-7A0E80CBFF05}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -439,7 +448,7 @@
     <col min="4" max="4" width="10.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -449,8 +458,14 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -460,9 +475,14 @@
       <c r="C2" s="1">
         <v>45893</v>
       </c>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -472,8 +492,14 @@
       <c r="C3" s="1">
         <v>45893</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -483,8 +509,14 @@
       <c r="C4" s="1">
         <v>45893</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -494,8 +526,14 @@
       <c r="C5" s="1">
         <v>45893</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -505,8 +543,14 @@
       <c r="C6" s="1">
         <v>45894</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2</v>
       </c>
@@ -516,8 +560,14 @@
       <c r="C7" s="1">
         <v>45894</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>3</v>
       </c>
@@ -527,8 +577,14 @@
       <c r="C8" s="1">
         <v>45894</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>4</v>
       </c>
@@ -537,6 +593,12 @@
       </c>
       <c r="C9" s="1">
         <v>45894</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
